--- a/Planejamento.xlsx
+++ b/Planejamento.xlsx
@@ -211,76 +211,6 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{197549C0-7D50-4486-95D9-27460B269E22}" diskRevisions="1" revisionId="185" version="15">
-  <header guid="{4106F3C4-51B0-4E8D-9F5E-857442B92833}" dateTime="2018-09-20T19:53:46" maxSheetId="2" userName="Wesley Soares" r:id="rId1">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{DFF740CE-BE4E-42B9-9D09-CAFD15EFF353}" dateTime="2018-09-20T19:54:38" maxSheetId="2" userName="Wesley Soares" r:id="rId2" minRId="1" maxRId="5">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{27E24AC2-A73E-4A17-9811-5FBCCF5175C3}" dateTime="2018-09-20T19:56:33" maxSheetId="2" userName="Wesley Soares" r:id="rId3" minRId="6" maxRId="8">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{17221542-C19A-4B7B-8B0E-545CEB6FCE32}" dateTime="2018-09-20T19:59:36" maxSheetId="2" userName="Wesley Soares" r:id="rId4" minRId="9" maxRId="10">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4957A60F-1FC8-42CD-9A05-DCED48A9A586}" dateTime="2018-09-20T20:02:23" maxSheetId="2" userName="Wesley Soares" r:id="rId5" minRId="11">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F1A32218-396B-4284-A83C-A354A7C4B31E}" dateTime="2018-09-20T20:05:41" maxSheetId="2" userName="Wesley Soares" r:id="rId6" minRId="12" maxRId="14">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{74423F2E-2696-41C1-87F4-138126D82B8E}" dateTime="2018-09-20T20:07:02" maxSheetId="2" userName="Wesley Soares" r:id="rId7" minRId="15" maxRId="17">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6C8E1049-1F63-435B-AD24-1AC47B82714E}" dateTime="2018-09-20T20:13:22" maxSheetId="2" userName="Wesley Soares" r:id="rId8" minRId="18" maxRId="29">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{8BBBF192-36E5-4799-A29A-18410D977994}" dateTime="2018-09-20T20:13:28" maxSheetId="2" userName="Wesley Soares" r:id="rId9">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{BE904983-BE77-4B95-9029-0D6EBD531533}" dateTime="2018-09-20T20:19:44" maxSheetId="2" userName="Wesley Soares" r:id="rId10" minRId="30" maxRId="32">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{8FD7B02D-F448-42DE-84EF-35E87A7F7E65}" dateTime="2018-09-20T20:19:50" maxSheetId="2" userName="Wesley Soares" r:id="rId11">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5301AD2F-C759-4D62-B8FE-54BAA4CEDED6}" dateTime="2018-09-20T20:20:12" maxSheetId="2" userName="Wesley Soares" r:id="rId12" minRId="33">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{BF4C4A0C-DF99-440A-A7E8-F5149F681070}" dateTime="2018-09-20T20:21:37" maxSheetId="2" userName="Wesley Soares" r:id="rId13" minRId="34" maxRId="38">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{BCB8B648-F847-44F4-A2ED-201472710CA2}" dateTime="2018-09-21T21:56:27" maxSheetId="2" userName="Wesley Soares" r:id="rId14" minRId="39" maxRId="52">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
   <header guid="{197549C0-7D50-4486-95D9-27460B269E22}" dateTime="2018-09-27T21:33:06" maxSheetId="3" userName="Wesley Soares" r:id="rId15" minRId="53" maxRId="185">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -288,1273 +218,6 @@
     </sheetIdMap>
   </header>
 </headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="30" sId="1" ref="G1:G1048576" action="deleteCol">
-    <undo index="0" exp="ref" v="1" dr="G5" r="H5" sId="1"/>
-    <rfmt sheetId="1" xfDxf="1" sqref="G1:G1048576" start="0" length="0"/>
-    <rcc rId="0" sId="1" dxf="1" numFmtId="19">
-      <nc r="G5">
-        <v>43374</v>
-      </nc>
-      <ndxf>
-        <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-        <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="0"/>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="G6" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G7" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G8" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G9" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G10" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G11" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G12" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G13" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G14" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G15" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G16" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G17" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rrc rId="31" sId="1" ref="G1:G1048576" action="deleteCol">
-    <undo index="0" exp="ref" v="1" dr="G5" r="H5" sId="1"/>
-    <rfmt sheetId="1" xfDxf="1" sqref="G1:G1048576" start="0" length="0"/>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="G5">
-        <f>#REF!+7</f>
-      </nc>
-      <ndxf>
-        <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-        <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="0"/>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="G6" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G7" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G8" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G9" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G10" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G11" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G12" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G13" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G14" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G15" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G16" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G17" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rrc rId="32" sId="1" ref="G1:G1048576" action="deleteCol">
-    <rfmt sheetId="1" xfDxf="1" sqref="G1:G1048576" start="0" length="0"/>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="G5">
-        <f>#REF!+7</f>
-      </nc>
-      <ndxf>
-        <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-        <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="0"/>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="G6" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G7" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G8" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G9" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G10" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G11" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G12" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G13" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G14" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G15" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G16" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G17" start="0" length="0">
-      <dxf>
-        <border outline="0">
-          <left style="thin">
-            <color indexed="64"/>
-          </left>
-          <right style="thin">
-            <color indexed="64"/>
-          </right>
-          <top style="thin">
-            <color indexed="64"/>
-          </top>
-          <bottom style="thin">
-            <color indexed="64"/>
-          </bottom>
-        </border>
-      </dxf>
-    </rfmt>
-  </rrc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="F17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="33" sId="1">
-    <oc r="A3" t="inlineStr">
-      <is>
-        <t>Sprint: 21/09/2018 a 04/10/2018</t>
-      </is>
-    </oc>
-    <nc r="A3" t="inlineStr">
-      <is>
-        <t>Sprint: 20/09/2018 a 28/09/2018</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="G5" start="0" length="0">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="G6" start="0" length="0">
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="G7" start="0" length="0">
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="G8" start="0" length="0">
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="G9" start="0" length="0">
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="G10" start="0" length="0">
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="G11" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="G12" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="G13" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="G14" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="G15" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="G16" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="G17" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="34" sId="1">
-    <oc r="A3" t="inlineStr">
-      <is>
-        <t>Sprint: 20/09/2018 a 28/09/2018</t>
-      </is>
-    </oc>
-    <nc r="A3" t="inlineStr">
-      <is>
-        <t>Sprint: 20/09/2018 a 29/09/2018</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="35" sId="1" numFmtId="19">
-    <nc r="G5">
-      <v>43372</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="G11:G17">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rrc rId="36" sId="1" eol="1" ref="A18:XFD18" action="insertRow"/>
-  <rcc rId="37" sId="1">
-    <nc r="A18" t="inlineStr">
-      <is>
-        <t>Entregar ao cliente</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="A18">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="38" sId="1">
-    <nc r="B18" t="inlineStr">
-      <is>
-        <t>Wesley</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="B18">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="G18">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="G16:G18" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A18:G18" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="39" sId="1" numFmtId="19">
-    <oc r="C5">
-      <v>43364</v>
-    </oc>
-    <nc r="C5">
-      <v>43367</v>
-    </nc>
-  </rcc>
-  <rcc rId="40" sId="1">
-    <oc r="B8" t="inlineStr">
-      <is>
-        <t>x</t>
-      </is>
-    </oc>
-    <nc r="B8" t="inlineStr">
-      <is>
-        <t>Samuel</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="41" sId="1">
-    <oc r="B9" t="inlineStr">
-      <is>
-        <t>x</t>
-      </is>
-    </oc>
-    <nc r="B9" t="inlineStr">
-      <is>
-        <t>Samuel</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="42" sId="1">
-    <oc r="B13" t="inlineStr">
-      <is>
-        <t>x</t>
-      </is>
-    </oc>
-    <nc r="B13" t="inlineStr">
-      <is>
-        <t>Samuel</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="43" sId="1">
-    <oc r="B14" t="inlineStr">
-      <is>
-        <t>x</t>
-      </is>
-    </oc>
-    <nc r="B14" t="inlineStr">
-      <is>
-        <t>Samuel</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="44" sId="1">
-    <oc r="B15" t="inlineStr">
-      <is>
-        <t>x</t>
-      </is>
-    </oc>
-    <nc r="B15" t="inlineStr">
-      <is>
-        <t>Samuel</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="45" sId="1">
-    <oc r="B16" t="inlineStr">
-      <is>
-        <t>x</t>
-      </is>
-    </oc>
-    <nc r="B16" t="inlineStr">
-      <is>
-        <t>Samuel</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="46" sId="1">
-    <oc r="B11" t="inlineStr">
-      <is>
-        <t>x</t>
-      </is>
-    </oc>
-    <nc r="B11" t="inlineStr">
-      <is>
-        <t>Rafaela</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="47" sId="1" ref="A12:XFD12" action="insertRow"/>
-  <rcc rId="48" sId="1">
-    <nc r="A12" t="inlineStr">
-      <is>
-        <t>Aprovar BD</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="49" sId="1">
-    <nc r="B12" t="inlineStr">
-      <is>
-        <t>Wesley</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="50" sId="1" ref="A10:XFD10" action="insertRow"/>
-  <rcc rId="51" sId="1">
-    <nc r="A10" t="inlineStr">
-      <is>
-        <t>Subir os diagramas para o Github</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="52" sId="1">
-    <nc r="B10" t="inlineStr">
-      <is>
-        <t>Samuel</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21569,459 +20232,6 @@
   </rfmt>
   <rcv guid="{932B5855-5956-41D2-9B84-B61C1F78E20D}" action="delete"/>
   <rcv guid="{932B5855-5956-41D2-9B84-B61C1F78E20D}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="1" sId="1" ref="A14:XFD14" action="insertRow"/>
-  <rcc rId="2" sId="1">
-    <nc r="A14" t="inlineStr">
-      <is>
-        <t>Criar a tela de Clientes</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="3" sId="1">
-    <nc r="B14" t="inlineStr">
-      <is>
-        <t>Natan</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4" sId="1">
-    <nc r="A15" t="inlineStr">
-      <is>
-        <t>Criar a tela de Funcionários</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="5" sId="1">
-    <nc r="B15" t="inlineStr">
-      <is>
-        <t>Natan</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="6" sId="1">
-    <oc r="B11" t="inlineStr">
-      <is>
-        <t>Wesley</t>
-      </is>
-    </oc>
-    <nc r="B11" t="inlineStr">
-      <is>
-        <t>Rafaela</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="7" sId="1" ref="C1:C1048576" action="insertCol"/>
-  <rfmt sheetId="1" sqref="C5" start="0" length="0">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="8" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="C5">
-      <v>43364</v>
-    </nc>
-    <ndxf>
-      <alignment horizontal="center" textRotation="90" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcv guid="{932B5855-5956-41D2-9B84-B61C1F78E20D}" action="delete"/>
-  <rcv guid="{932B5855-5956-41D2-9B84-B61C1F78E20D}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="9" sId="1">
-    <oc r="D5">
-      <f>TODAY()+8</f>
-    </oc>
-    <nc r="D5">
-      <f>C5+7</f>
-    </nc>
-  </rcc>
-  <rcc rId="10" sId="1">
-    <oc r="A3" t="inlineStr">
-      <is>
-        <t>Sprint: 20/09/2018 a 04/10/2018</t>
-      </is>
-    </oc>
-    <nc r="A3" t="inlineStr">
-      <is>
-        <t>Sprint: 21/09/2018 a 04/10/2018</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="11" sId="1" numFmtId="19">
-    <oc r="C5">
-      <v>43364</v>
-    </oc>
-    <nc r="C5">
-      <v>43369</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="C6:C7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="D8:D9">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcc rId="12" sId="1" numFmtId="19">
-    <oc r="C5">
-      <v>43369</v>
-    </oc>
-    <nc r="C5">
-      <v>43368</v>
-    </nc>
-  </rcc>
-  <rcc rId="13" sId="1" numFmtId="19">
-    <oc r="D5">
-      <f>C5+7</f>
-    </oc>
-    <nc r="D5">
-      <v>43369</v>
-    </nc>
-  </rcc>
-  <rcc rId="14" sId="1" numFmtId="19">
-    <oc r="E5">
-      <f>D5+7</f>
-    </oc>
-    <nc r="E5">
-      <v>43370</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="E10">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="15" sId="1" ref="C1:C1048576" action="insertCol"/>
-  <rfmt sheetId="1" sqref="C5" start="0" length="0">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" textRotation="90" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="C6" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="C7" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcc rId="16" sId="1" numFmtId="19">
-    <nc r="C5">
-      <v>43364</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="C8:D9">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcc rId="17" sId="1" numFmtId="19">
-    <oc r="F5">
-      <v>43370</v>
-    </oc>
-    <nc r="F5">
-      <v>43371</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="18" sId="1">
-    <oc r="B8" t="inlineStr">
-      <is>
-        <t>Natan</t>
-      </is>
-    </oc>
-    <nc r="B8" t="inlineStr">
-      <is>
-        <t>x</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="19" sId="1">
-    <oc r="B9" t="inlineStr">
-      <is>
-        <t>Natan</t>
-      </is>
-    </oc>
-    <nc r="B9" t="inlineStr">
-      <is>
-        <t>x</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="20" sId="1">
-    <oc r="B11" t="inlineStr">
-      <is>
-        <t>Rafaela</t>
-      </is>
-    </oc>
-    <nc r="B11" t="inlineStr">
-      <is>
-        <t>x</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="21" sId="1" numFmtId="19">
-    <oc r="G5">
-      <f>F5+14</f>
-    </oc>
-    <nc r="G5">
-      <v>43374</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="G11:G12">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcc rId="22" sId="1">
-    <oc r="B13" t="inlineStr">
-      <is>
-        <t>Natan</t>
-      </is>
-    </oc>
-    <nc r="B13" t="inlineStr">
-      <is>
-        <t>x</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="23" sId="1">
-    <oc r="B14" t="inlineStr">
-      <is>
-        <t>Natan</t>
-      </is>
-    </oc>
-    <nc r="B14" t="inlineStr">
-      <is>
-        <t>x</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="24" sId="1">
-    <oc r="B15" t="inlineStr">
-      <is>
-        <t>Natan</t>
-      </is>
-    </oc>
-    <nc r="B15" t="inlineStr">
-      <is>
-        <t>x</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="25" sId="1">
-    <oc r="B16" t="inlineStr">
-      <is>
-        <t>Natan</t>
-      </is>
-    </oc>
-    <nc r="B16" t="inlineStr">
-      <is>
-        <t>x</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="D6:D7">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="E8:E9">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="E10" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="F10" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="F11" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="F12" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="G11:G12">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="F13:F15">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcc rId="26" sId="1">
-    <oc r="A14" t="inlineStr">
-      <is>
-        <t>Criar a tela de Clientes</t>
-      </is>
-    </oc>
-    <nc r="A14" t="inlineStr">
-      <is>
-        <t>Criar a tela ClienteView</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="27" sId="1">
-    <oc r="A15" t="inlineStr">
-      <is>
-        <t>Criar a tela de Funcionários</t>
-      </is>
-    </oc>
-    <nc r="A15" t="inlineStr">
-      <is>
-        <t>Criar a tela FuncionárioView</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="28" sId="1">
-    <oc r="A13" t="inlineStr">
-      <is>
-        <t>Criar a interface principal</t>
-      </is>
-    </oc>
-    <nc r="A13" t="inlineStr">
-      <is>
-        <t>Criar a tela Principal</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="29" sId="1">
-    <oc r="A16" t="inlineStr">
-      <is>
-        <t>Comitar a interface principal</t>
-      </is>
-    </oc>
-    <nc r="A16" t="inlineStr">
-      <is>
-        <t>Comitar</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="F16">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
 </revisions>
 </file>
 
